--- a/docs/oncocore-CancerHistologicType.xlsx
+++ b/docs/oncocore-CancerHistologicType.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="458">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>obs-6:SHALL only be present if Observation.value[x] is not present {null}
-obs-7:Component code SHALL not be same as observation code {null}</t>
+obs-7:Component code SHALL not be same as observation code {null}arg-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -413,6 +413,9 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>Observation:argoprofile.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -542,9 +545,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
@@ -573,6 +573,15 @@
     <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+    &lt;userSelected value="false"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories .</t>
   </si>
   <si>
@@ -588,16 +597,23 @@
     <t>Observation.code</t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Test Name
+Observation Identifer</t>
+  </si>
+  <si>
+    <t>Lab Test Name</t>
+  </si>
+  <si>
+    <t>The test that was performed.  This is element is bound to LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC, use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
+    <t>LOINC codes</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -795,9 +811,7 @@
     <t>The patient, or group of patients, location, or device whose characteristics (direct or indirect) are described by the observation and into whose record the observation is placed.  Comments: Indirect characteristics may be those of a specimen, fetus, donor,  other observer (for example a relative or EMT), or any observation made about the subject.</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.--If the target of the observation is different than the subject, the general extension [observation-focal-subject](extension-observation-focal-subject.html).  may be used.  However, the distinction between the patient's own value for an observation versus that of the fetus, or the donor or blood product unit, etc., are often specified in the observation code.</t>
+    <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.  If the target of the observation is different than the subject, the general extension [observation-focal-subject](extension-observation-focal-subject.html).  may be used.  However, the distinction between the patient's own value for an observation versus that of the fetus, or the donor or blood product unit, etc., are often specified in the observation code.</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -847,13 +861,17 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arg-1:Datetime must be at least to day. {length() &gt;= 8}
+</t>
   </si>
   <si>
     <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
@@ -917,7 +935,7 @@
     <t>Actual result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>If codeableConcept, valueCodeableConcept *SHOULD*  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If Quantity, valueQuantity units *SHALL* be selected from [UCUM](http://unitsofmeasure.org).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerHistologicTypeVS</t>
@@ -1066,7 +1084,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Specimen]]}
 </t>
   </si>
   <si>
@@ -1351,6 +1369,9 @@
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
   </si>
   <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-7
 </t>
   </si>
@@ -1363,6 +1384,9 @@
   </si>
   <si>
     <t>Actual component result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
@@ -1572,7 +1596,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1601,7 +1625,7 @@
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="26.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="42.92578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
@@ -1784,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s" s="2">
         <v>42</v>
@@ -1810,11 +1834,15 @@
       <c r="AD2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AF2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG2" s="2"/>
+      <c r="AG2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH2" t="s" s="2">
         <v>42</v>
       </c>
@@ -1888,7 +1916,7 @@
         <v>42</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s" s="2">
         <v>42</v>
@@ -1914,11 +1942,15 @@
       <c r="AD3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE3" s="2"/>
+      <c r="AE3" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AF3" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG3" s="2"/>
+      <c r="AG3" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH3" t="s" s="2">
         <v>42</v>
       </c>
@@ -1990,7 +2022,7 @@
         <v>42</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s" s="2">
         <v>42</v>
@@ -2016,11 +2048,15 @@
       <c r="AD4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="AF4" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG4" s="2"/>
+      <c r="AG4" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH4" t="s" s="2">
         <v>42</v>
       </c>
@@ -2820,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>42</v>
@@ -2846,11 +2882,15 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2924,7 +2964,7 @@
         <v>42</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>108</v>
@@ -2950,11 +2990,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -3028,7 +3072,7 @@
         <v>42</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>42</v>
@@ -3054,11 +3098,15 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>117</v>
       </c>
@@ -3132,7 +3180,7 @@
         <v>42</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>42</v>
@@ -3158,11 +3206,15 @@
       <c r="AD15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH15" t="s" s="2">
         <v>42</v>
       </c>
@@ -3183,7 +3235,9 @@
       <c r="A16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>66</v>
       </c>
@@ -3210,7 +3264,7 @@
         <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>70</v>
@@ -3236,7 +3290,7 @@
         <v>42</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>42</v>
@@ -3251,20 +3305,24 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3286,7 +3344,7 @@
         <v>126</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>42</v>
@@ -3308,11 +3366,11 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3336,7 +3394,7 @@
         <v>42</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>42</v>
@@ -3392,7 +3450,7 @@
         <v>126</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
@@ -3414,11 +3472,11 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3442,7 +3500,7 @@
         <v>42</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>42</v>
@@ -3495,7 +3553,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3518,13 +3576,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>62</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3575,7 +3633,7 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3601,7 +3659,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3627,10 +3685,10 @@
         <v>67</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3681,7 +3739,7 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3707,7 +3765,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3733,10 +3791,10 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3745,7 +3803,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3787,7 +3845,7 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>51</v>
@@ -3813,7 +3871,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3836,13 +3894,13 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3893,7 +3951,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3919,7 +3977,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3945,10 +4003,10 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>70</v>
@@ -3974,7 +4032,7 @@
         <v>42</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>42</v>
@@ -4000,11 +4058,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4023,7 +4085,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4046,17 +4108,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4078,7 +4140,7 @@
         <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>42</v>
@@ -4104,11 +4166,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4116,18 +4182,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4141,26 +4207,26 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4182,14 +4248,12 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X25" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
         <v>169</v>
       </c>
@@ -4208,11 +4272,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG25" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4229,7 +4297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>173</v>
       </c>
@@ -4239,13 +4307,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>42</v>
@@ -4274,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>42</v>
@@ -4286,16 +4354,16 @@
         <v>42</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4312,11 +4380,15 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG26" s="2"/>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4327,19 +4399,19 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4349,26 +4421,28 @@
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>174</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4390,16 +4464,16 @@
         <v>42</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4416,11 +4490,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG27" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4428,18 +4506,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4541,7 +4619,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4645,7 +4723,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4671,16 +4749,16 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4717,14 +4795,14 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -4738,10 +4816,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4749,10 +4827,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>42</v>
@@ -4777,10 +4855,10 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4853,7 +4931,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4955,7 +5033,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5059,7 +5137,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5085,23 +5163,23 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5154,10 +5232,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5165,7 +5243,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5188,16 +5266,16 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5258,10 +5336,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5269,7 +5347,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5295,21 +5373,21 @@
         <v>104</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>42</v>
@@ -5362,10 +5440,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5373,7 +5451,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5396,17 +5474,17 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5466,10 +5544,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5477,7 +5555,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5500,19 +5578,19 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5572,10 +5650,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5583,7 +5661,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5606,19 +5684,19 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5678,18 +5756,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5697,34 +5775,34 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5746,7 +5824,7 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>42</v>
@@ -5772,11 +5850,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5784,18 +5866,18 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5818,17 +5900,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5850,7 +5932,7 @@
         <v>42</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
         <v>42</v>
@@ -5876,11 +5958,15 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5888,18 +5974,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5913,28 +5999,28 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5956,7 +6042,7 @@
         <v>42</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>42</v>
@@ -5982,30 +6068,34 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6031,13 +6121,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6060,7 +6150,7 @@
         <v>42</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>42</v>
@@ -6086,11 +6176,15 @@
       <c r="AD43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6098,18 +6192,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6132,17 +6226,17 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6164,7 +6258,7 @@
         <v>42</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
         <v>42</v>
@@ -6191,7 +6285,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6206,18 +6300,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6237,16 +6331,16 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>174</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6277,7 +6371,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6295,7 +6389,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6319,9 +6413,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6335,7 +6429,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
@@ -6347,16 +6441,16 @@
         <v>174</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6378,14 +6472,14 @@
         <v>42</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6402,13 +6496,17 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH46" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
@@ -6417,7 +6515,7 @@
         <v>125</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6425,11 +6523,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6451,14 +6549,14 @@
         <v>174</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6480,16 +6578,16 @@
         <v>42</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>90</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6506,11 +6604,15 @@
       <c r="AD47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE47" s="2"/>
+      <c r="AE47" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6518,10 +6620,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6529,7 +6631,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6552,17 +6654,17 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6584,7 +6686,7 @@
         <v>42</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>42</v>
@@ -6610,11 +6712,15 @@
       <c r="AD48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6622,10 +6728,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6633,7 +6739,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6659,16 +6765,16 @@
         <v>174</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6690,14 +6796,14 @@
         <v>42</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6715,7 +6821,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6730,10 +6836,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6741,7 +6847,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6843,7 +6949,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6947,7 +7053,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6973,16 +7079,16 @@
         <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7042,10 +7148,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7053,7 +7159,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7076,19 +7182,19 @@
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7148,10 +7254,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7159,7 +7265,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7185,16 +7291,16 @@
         <v>174</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7216,16 +7322,16 @@
         <v>42</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>97</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7242,11 +7348,15 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7254,10 +7364,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7265,7 +7375,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7276,7 +7386,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7288,16 +7398,16 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7320,7 +7430,7 @@
         <v>42</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
         <v>42</v>
@@ -7347,7 +7457,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7362,10 +7472,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7373,7 +7483,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7396,16 +7506,16 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7428,7 +7538,7 @@
         <v>42</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>42</v>
@@ -7455,7 +7565,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7470,10 +7580,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7481,7 +7591,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7504,19 +7614,19 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7538,7 +7648,7 @@
         <v>42</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
         <v>42</v>
@@ -7565,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7577,13 +7687,13 @@
         <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7591,7 +7701,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7644,7 +7754,7 @@
         <v>42</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
         <v>42</v>
@@ -7670,11 +7780,15 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" s="2"/>
+      <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7693,7 +7807,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7748,7 +7862,7 @@
         <v>42</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
         <v>42</v>
@@ -7774,11 +7888,15 @@
       <c r="AD59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7797,11 +7915,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7823,10 +7941,10 @@
         <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>70</v>
@@ -7852,7 +7970,7 @@
         <v>42</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>42</v>
@@ -7878,11 +7996,15 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" s="2"/>
+      <c r="AG60" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7901,7 +8023,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7924,13 +8046,13 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7954,7 +8076,7 @@
         <v>42</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>42</v>
@@ -7980,22 +8102,26 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH61" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8003,7 +8129,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8026,13 +8152,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8056,7 +8182,7 @@
         <v>42</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>42</v>
@@ -8082,22 +8208,26 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" s="2"/>
+      <c r="AE62" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" s="2"/>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH62" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8105,7 +8235,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8131,16 +8261,16 @@
         <v>174</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8162,16 +8292,16 @@
         <v>42</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
         <v>90</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8188,11 +8318,15 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8200,10 +8334,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8211,7 +8345,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8234,17 +8368,17 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8266,7 +8400,7 @@
         <v>42</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
         <v>42</v>
@@ -8292,11 +8426,15 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" s="2"/>
+      <c r="AE64" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG64" s="2"/>
+      <c r="AG64" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8307,7 +8445,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8315,7 +8453,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8338,13 +8476,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8368,7 +8506,7 @@
         <v>42</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
         <v>42</v>
@@ -8394,11 +8532,15 @@
       <c r="AD65" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE65" s="2"/>
+      <c r="AE65" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG65" s="2"/>
+      <c r="AG65" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8406,10 +8548,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8417,7 +8559,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8440,19 +8582,19 @@
         <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8474,7 +8616,7 @@
         <v>42</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
         <v>42</v>
@@ -8501,7 +8643,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8516,10 +8658,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8527,7 +8669,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8580,7 +8722,7 @@
         <v>42</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W67" t="s" s="2">
         <v>42</v>
@@ -8606,11 +8748,15 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8629,7 +8775,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8684,7 +8830,7 @@
         <v>42</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W68" t="s" s="2">
         <v>42</v>
@@ -8710,11 +8856,15 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" s="2"/>
+      <c r="AE68" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" s="2"/>
+      <c r="AG68" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8733,11 +8883,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8759,10 +8909,10 @@
         <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>70</v>
@@ -8788,7 +8938,7 @@
         <v>42</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
         <v>42</v>
@@ -8814,11 +8964,15 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8837,7 +8991,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8863,23 +9017,23 @@
         <v>104</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -8894,16 +9048,16 @@
         <v>42</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
         <v>108</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8920,11 +9074,15 @@
       <c r="AD70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE70" s="2"/>
+      <c r="AE70" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG70" s="2"/>
+      <c r="AG70" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8935,7 +9093,7 @@
         <v>125</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8943,7 +9101,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8966,13 +9124,13 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8996,7 +9154,7 @@
         <v>42</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
         <v>42</v>
@@ -9022,11 +9180,15 @@
       <c r="AD71" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE71" s="2"/>
+      <c r="AE71" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9037,7 +9199,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9045,7 +9207,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9068,19 +9230,19 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9102,7 +9264,7 @@
         <v>42</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W72" t="s" s="2">
         <v>42</v>
@@ -9129,7 +9291,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9144,10 +9306,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9155,7 +9317,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9208,7 +9370,7 @@
         <v>42</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
         <v>42</v>
@@ -9234,11 +9396,15 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" s="2"/>
+      <c r="AE73" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" s="2"/>
+      <c r="AG73" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9257,7 +9423,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9312,7 +9478,7 @@
         <v>42</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
         <v>42</v>
@@ -9338,11 +9504,15 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" s="2"/>
+      <c r="AE74" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" s="2"/>
+      <c r="AG74" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9361,11 +9531,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9387,10 +9557,10 @@
         <v>67</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>70</v>
@@ -9416,7 +9586,7 @@
         <v>42</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>42</v>
@@ -9442,11 +9612,15 @@
       <c r="AD75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE75" s="2"/>
+      <c r="AE75" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG75" s="2"/>
+      <c r="AG75" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9465,7 +9639,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9491,14 +9665,14 @@
         <v>174</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -9520,16 +9694,16 @@
         <v>42</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
         <v>97</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9546,30 +9720,34 @@
       <c r="AD76" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE76" s="2"/>
+      <c r="AE76" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH76" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9592,19 +9770,19 @@
         <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9626,7 +9804,7 @@
         <v>42</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
         <v>42</v>
@@ -9652,11 +9830,15 @@
       <c r="AD77" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE77" s="2"/>
+      <c r="AE77" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG77" s="2"/>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9664,10 +9846,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9675,7 +9857,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9701,16 +9883,16 @@
         <v>174</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -9732,14 +9914,14 @@
         <v>42</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W78" t="s" s="2">
         <v>90</v>
       </c>
       <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9756,13 +9938,17 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH78" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
@@ -9771,7 +9957,7 @@
         <v>125</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9779,7 +9965,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9802,19 +9988,19 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -9862,11 +10048,15 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" s="2"/>
+      <c r="AE79" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" s="2"/>
+      <c r="AG79" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9874,10 +10064,10 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9885,7 +10075,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9987,7 +10177,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10091,11 +10281,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10117,10 +10307,10 @@
         <v>67</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>70</v>
@@ -10195,7 +10385,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10218,13 +10408,13 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -10280,16 +10470,16 @@
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10297,7 +10487,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10320,13 +10510,13 @@
         <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10382,16 +10572,16 @@
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10399,7 +10589,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10425,16 +10615,16 @@
         <v>174</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -10462,10 +10652,10 @@
         <v>97</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>42</v>
@@ -10494,10 +10684,10 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10505,7 +10695,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10528,17 +10718,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -10601,7 +10791,7 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10609,7 +10799,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10632,13 +10822,13 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10700,10 +10890,10 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>

--- a/docs/oncocore-CancerHistologicType.xlsx
+++ b/docs/oncocore-CancerHistologicType.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="438">
   <si>
     <t>Path</t>
   </si>
@@ -426,80 +426,14 @@
     <t>open</t>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The entity this condition or observation relates to, for example, a related person. The Focus is only required if the person or thing observed is different than the patient. Focus should not be an anatomical location. Examples: The focus for cancer progression would be the cancer condition; for wound length, an instance of a wound (a condition).</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-DomainResource]]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>Cancer condition this information relates to.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -698,6 +632,10 @@
     <t>Observation.code.coding.version</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Version of the system - if relevant</t>
   </si>
   <si>
@@ -801,7 +739,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -829,7 +767,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -907,7 +845,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1084,7 +1022,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Specimen]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
 </t>
   </si>
   <si>
@@ -1106,7 +1044,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1320,7 +1258,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1586,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1595,44 +1533,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.92578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.25390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3447,38 +3385,40 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s" s="2">
         <v>134</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3527,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3545,7 +3485,7 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3564,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3579,13 +3519,15 @@
         <v>138</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3606,7 +3548,7 @@
         <v>42</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>42</v>
@@ -3633,13 +3575,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3648,18 +3590,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3667,31 +3609,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3712,16 +3656,14 @@
         <v>42</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3742,10 +3684,10 @@
         <v>144</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>42</v>
@@ -3754,18 +3696,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3779,7 +3721,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3788,25 +3730,27 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>42</v>
@@ -3818,16 +3762,16 @@
         <v>42</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3845,10 +3789,10 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>51</v>
@@ -3863,19 +3807,19 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3885,7 +3829,7 @@
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
@@ -3894,16 +3838,20 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3924,16 +3872,16 @@
         <v>42</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3951,10 +3899,10 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -3966,51 +3914,49 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -4032,7 +3978,7 @@
         <v>42</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>42</v>
@@ -4058,15 +4004,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4077,7 +4019,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4085,11 +4027,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4108,18 +4050,18 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4140,7 +4082,7 @@
         <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>42</v>
@@ -4166,15 +4108,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4182,18 +4120,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4204,29 +4142,31 @@
         <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4248,39 +4188,35 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4288,20 +4224,22 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4313,26 +4251,24 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4342,7 +4278,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>42</v>
@@ -4354,16 +4290,16 @@
         <v>42</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>179</v>
+        <v>42</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4380,15 +4316,11 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4399,29 +4331,29 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
@@ -4430,20 +4362,16 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4464,16 +4392,16 @@
         <v>42</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4490,15 +4418,11 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4506,29 +4430,29 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4540,15 +4464,17 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4619,18 +4545,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4639,27 +4565,29 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4712,10 +4640,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4723,7 +4651,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4731,10 +4659,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4746,7 +4674,7 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>197</v>
@@ -4757,9 +4685,7 @@
       <c r="M30" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4795,14 +4721,16 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -4816,10 +4744,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4827,17 +4755,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4852,22 +4778,24 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4920,10 +4848,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4931,7 +4859,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4951,19 +4879,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5022,10 +4952,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -5033,18 +4963,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5053,21 +4983,23 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5126,10 +5058,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5137,7 +5069,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5160,26 +5092,26 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5232,18 +5164,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5251,33 +5183,35 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5298,7 +5232,7 @@
         <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>42</v>
@@ -5324,11 +5258,15 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5336,18 +5274,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5367,27 +5305,27 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>42</v>
@@ -5402,7 +5340,7 @@
         <v>42</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>42</v>
@@ -5428,11 +5366,15 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5440,18 +5382,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5465,26 +5407,28 @@
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5506,7 +5450,7 @@
         <v>42</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
         <v>42</v>
@@ -5532,30 +5476,34 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" s="2"/>
+      <c r="AE37" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" s="2"/>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5578,20 +5526,18 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5612,7 +5558,7 @@
         <v>42</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>42</v>
@@ -5638,11 +5584,15 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5650,18 +5600,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5672,7 +5622,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5684,19 +5634,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5718,7 +5666,7 @@
         <v>42</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>42</v>
@@ -5744,11 +5692,15 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5756,18 +5708,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5775,13 +5727,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5790,20 +5742,16 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5824,16 +5772,14 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5851,7 +5797,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5866,18 +5812,18 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>257</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5891,7 +5837,7 @@
         <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>42</v>
@@ -5900,17 +5846,19 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5935,13 +5883,11 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5959,7 +5905,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5968,28 +5914,28 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5999,7 +5945,7 @@
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6008,19 +5954,17 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6045,13 +5989,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -6069,7 +6013,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6081,21 +6025,21 @@
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6115,21 +6059,21 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6177,7 +6121,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6192,18 +6136,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6214,7 +6158,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6223,20 +6167,22 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6261,13 +6207,11 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6285,13 +6229,13 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
@@ -6300,18 +6244,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6334,13 +6278,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>294</v>
+        <v>63</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6367,11 +6311,13 @@
         <v>42</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y45" t="s" s="2">
-        <v>295</v>
+        <v>42</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>42</v>
@@ -6388,15 +6334,11 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6407,29 +6349,29 @@
         <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
@@ -6438,20 +6380,18 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6472,14 +6412,16 @@
         <v>42</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6496,26 +6438,22 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6523,18 +6461,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6543,20 +6481,22 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6578,16 +6518,16 @@
         <v>42</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>311</v>
+        <v>42</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6604,15 +6544,11 @@
       <c r="AD47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6620,10 +6556,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6631,7 +6567,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6651,20 +6587,22 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6686,7 +6624,7 @@
         <v>42</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>42</v>
@@ -6712,15 +6650,11 @@
       <c r="AD48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE48" t="s" s="2">
-        <v>314</v>
-      </c>
+      <c r="AE48" s="2"/>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6728,10 +6662,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6739,7 +6673,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6750,7 +6684,7 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6762,19 +6696,19 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6799,11 +6733,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6821,7 +6757,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6836,10 +6772,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6847,7 +6783,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6870,15 +6806,17 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>62</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6900,7 +6838,7 @@
         <v>42</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>42</v>
@@ -6926,11 +6864,15 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6938,10 +6880,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6949,18 +6891,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6972,16 +6914,16 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>69</v>
+        <v>332</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7004,7 +6946,7 @@
         <v>42</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>42</v>
@@ -7030,11 +6972,15 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7042,10 +6988,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>64</v>
+        <v>335</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7053,7 +6999,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7064,7 +7010,7 @@
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7073,22 +7019,22 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>197</v>
+        <v>338</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>199</v>
+        <v>340</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7110,7 +7056,7 @@
         <v>42</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>42</v>
@@ -7136,22 +7082,26 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7159,7 +7109,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7179,23 +7129,19 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7216,7 +7162,7 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>42</v>
@@ -7242,11 +7188,15 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7254,10 +7204,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7265,18 +7215,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7288,20 +7238,18 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>334</v>
+        <v>68</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>335</v>
+        <v>69</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7325,13 +7273,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7349,13 +7297,13 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
@@ -7364,10 +7312,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7375,39 +7323,39 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7457,13 +7405,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7472,10 +7420,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7483,7 +7431,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7494,7 +7442,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7506,17 +7454,15 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M56" t="s" s="2">
         <v>353</v>
       </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7565,7 +7511,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7574,16 +7520,16 @@
         <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7591,7 +7537,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7602,7 +7548,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7614,7 +7560,7 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>358</v>
@@ -7622,12 +7568,8 @@
       <c r="L57" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7675,25 +7617,25 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7701,7 +7643,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7724,16 +7666,20 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7757,13 +7703,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7781,7 +7727,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7796,10 +7742,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7807,18 +7753,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7830,18 +7776,18 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7889,13 +7835,13 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
@@ -7907,7 +7853,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7915,40 +7861,38 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7997,13 +7941,13 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
@@ -8012,10 +7956,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8023,7 +7967,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8034,7 +7978,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -8043,19 +7987,23 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8103,25 +8051,25 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8129,7 +8077,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8152,13 +8100,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>371</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>378</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>379</v>
+        <v>63</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8209,7 +8157,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8218,16 +8166,16 @@
         <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8235,18 +8183,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8258,20 +8206,18 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>382</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>69</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8295,37 +8241,37 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
@@ -8334,10 +8280,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>313</v>
+        <v>64</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8345,41 +8291,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>390</v>
+        <v>67</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8427,13 +8373,13 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>42</v>
@@ -8445,7 +8391,7 @@
         <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>394</v>
+        <v>125</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8453,7 +8399,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8476,22 +8422,26 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>42</v>
@@ -8509,13 +8459,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8533,7 +8483,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8548,10 +8498,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8559,7 +8509,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8567,10 +8517,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8579,10 +8529,10 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>400</v>
@@ -8590,12 +8540,8 @@
       <c r="L66" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8643,13 +8589,13 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
@@ -8658,10 +8604,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8669,7 +8615,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8680,7 +8626,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8689,19 +8635,23 @@
         <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8749,13 +8699,13 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
@@ -8764,10 +8714,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>407</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8775,18 +8725,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8798,17 +8748,15 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8857,13 +8805,13 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
@@ -8883,11 +8831,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -8900,7 +8848,7 @@
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
@@ -8909,10 +8857,10 @@
         <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>70</v>
@@ -8965,7 +8913,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8983,7 +8931,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8991,49 +8939,47 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>411</v>
+        <v>349</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -9051,13 +8997,13 @@
         <v>40</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>415</v>
+        <v>42</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -9075,13 +9021,13 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>42</v>
@@ -9090,10 +9036,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9101,7 +9047,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9121,19 +9067,21 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>419</v>
+        <v>153</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9157,13 +9105,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>42</v>
+        <v>415</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9181,7 +9129,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>51</v>
@@ -9190,24 +9138,24 @@
         <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>42</v>
+        <v>416</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>422</v>
+        <v>171</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9218,7 +9166,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
@@ -9230,19 +9178,19 @@
         <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9291,25 +9239,25 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>427</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9317,7 +9265,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9340,16 +9288,20 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>62</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9373,13 +9325,11 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9397,7 +9347,7 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9406,16 +9356,16 @@
         <v>51</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9423,11 +9373,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9446,18 +9396,20 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>67</v>
+        <v>337</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>68</v>
+        <v>429</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9478,7 +9430,7 @@
         <v>42</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W74" t="s" s="2">
         <v>42</v>
@@ -9505,7 +9457,7 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9520,10 +9472,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9531,40 +9483,38 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9586,7 +9536,7 @@
         <v>42</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>42</v>
@@ -9612,15 +9562,11 @@
       <c r="AD75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE75" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="AE75" s="2"/>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9631,7 +9577,7 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9639,18 +9585,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9659,21 +9605,21 @@
         <v>42</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>433</v>
+        <v>68</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9694,16 +9640,16 @@
         <v>42</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9720,70 +9666,64 @@
       <c r="AD76" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE76" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="AE76" s="2"/>
       <c r="AF76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG76" s="2"/>
       <c r="AH76" t="s" s="2">
-        <v>436</v>
+        <v>42</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>438</v>
+        <v>67</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>439</v>
+        <v>135</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9804,7 +9744,7 @@
         <v>42</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
         <v>42</v>
@@ -9830,15 +9770,11 @@
       <c r="AD77" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE77" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="AE77" s="2"/>
       <c r="AF77" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG77" s="2"/>
       <c r="AH77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9846,10 +9782,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>444</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9857,7 +9793,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9880,20 +9816,16 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9914,14 +9846,16 @@
         <v>42</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X78" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y78" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9938,26 +9872,22 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="AE78" s="2"/>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG78" s="2"/>
       <c r="AH78" t="s" s="2">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>125</v>
+        <v>355</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9965,7 +9895,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9976,7 +9906,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -9988,20 +9918,16 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -10048,26 +9974,22 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="AE79" s="2"/>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10075,7 +9997,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10098,16 +10020,20 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>62</v>
+        <v>362</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10131,13 +10057,13 @@
         <v>42</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -10166,10 +10092,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10177,18 +10103,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -10200,18 +10126,18 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>68</v>
+        <v>371</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10273,7 +10199,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10281,40 +10207,38 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -10374,533 +10298,17 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE83" s="2"/>
-      <c r="AF83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG83" s="2"/>
-      <c r="AH83" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" s="2"/>
-      <c r="AH84" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG85" s="2"/>
-      <c r="AH85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE86" s="2"/>
-      <c r="AF86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG86" s="2"/>
-      <c r="AH86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE87" s="2"/>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" s="2"/>
-      <c r="AH87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL87" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL87">
+  <autoFilter ref="A1:AL82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10910,7 +10318,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/oncocore-CancerHistologicType.xlsx
+++ b/docs/oncocore-CancerHistologicType.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="466">
   <si>
     <t>Path</t>
   </si>
@@ -448,6 +448,9 @@
     <t>Observation.identifier</t>
   </si>
   <si>
+    <t>Observation:argoprofile.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
@@ -461,10 +464,53 @@
     <t>Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:Type.coding.code}
+</t>
+  </si>
+  <si>
     <t>OBX.21</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>shr-core-AccessionIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AccessionIdentifier]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>AccessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>shr-core-FillerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-FillerOrderNumber]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FillerOrderNumber</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PlacerOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PlacerOrderNumber]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>PlacerOrderNumber</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the requester of the lab.</t>
   </si>
   <si>
     <t>Observation.status</t>
@@ -845,6 +891,9 @@
     <t>Observation.performer</t>
   </si>
   <si>
+    <t>Observation:argoprofile.performer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
@@ -858,6 +907,10 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>profile:target.reference}
+profile:target.reference}profile:target.reference}</t>
+  </si>
+  <si>
     <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
@@ -865,6 +918,45 @@
   </si>
   <si>
     <t>who.actor</t>
+  </si>
+  <si>
+    <t>shr-core-ResponsibleObserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>ResponsibleObserver</t>
+  </si>
+  <si>
+    <t>Person directly responsible for carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PerformingLaboratory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+</t>
+  </si>
+  <si>
+    <t>PerformingLaboratory</t>
+  </si>
+  <si>
+    <t>Organization responsible for carrying out the test.</t>
+  </si>
+  <si>
+    <t>shr-core-PerformingOrganizationMedicalDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
+</t>
+  </si>
+  <si>
+    <t>PerformingOrganizationMedicalDirector</t>
+  </si>
+  <si>
+    <t>Director of the laboratory performing the test.</t>
   </si>
   <si>
     <t>Observation.valueCodeableConcept</t>
@@ -971,7 +1063,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1524,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM82"/>
+  <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1534,7 +1626,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.0625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1559,7 +1651,7 @@
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.25390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3495,7 +3587,9 @@
       <c r="A19" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3516,17 +3610,17 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
@@ -3563,16 +3657,14 @@
         <v>42</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>137</v>
@@ -3590,52 +3682,52 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3659,11 +3751,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3681,47 +3775,49 @@
         <v>42</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="AK20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>
@@ -3730,17 +3826,15 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3750,7 +3844,7 @@
         <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>42</v>
@@ -3765,13 +3859,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3789,13 +3883,13 @@
         <v>42</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>42</v>
@@ -3804,32 +3898,34 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>42</v>
@@ -3838,20 +3934,16 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3875,13 +3967,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3899,13 +3991,13 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>42</v>
@@ -3914,18 +4006,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3933,31 +4025,33 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3978,16 +4072,14 @@
         <v>42</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -4004,11 +4096,15 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="AF23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG23" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4016,32 +4112,32 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>42</v>
@@ -4050,16 +4146,16 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4070,7 +4166,7 @@
         <v>42</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>42</v>
@@ -4082,16 +4178,16 @@
         <v>42</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4108,11 +4204,15 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4123,50 +4223,50 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4188,35 +4288,41 @@
         <v>42</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AE25" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG25" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4224,28 +4330,26 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
@@ -4257,16 +4361,16 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4331,7 +4435,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4339,18 +4443,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4362,15 +4466,17 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4441,15 +4547,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>41</v>
@@ -4461,21 +4567,23 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
@@ -4511,16 +4619,14 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
@@ -4534,10 +4640,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4545,15 +4651,17 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4568,26 +4676,22 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4640,10 +4744,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4651,7 +4755,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4671,20 +4775,18 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4744,10 +4846,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4755,18 +4857,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4775,27 +4877,27 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4848,10 +4950,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4859,7 +4961,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4882,24 +4984,26 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N32" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>42</v>
@@ -4952,10 +5056,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4963,7 +5067,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4986,20 +5090,18 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5058,10 +5160,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5069,7 +5171,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5092,26 +5194,24 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5164,18 +5264,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5183,34 +5283,32 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5232,7 +5330,7 @@
         <v>42</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>42</v>
@@ -5258,15 +5356,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5274,18 +5368,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5305,20 +5399,22 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5340,7 +5436,7 @@
         <v>42</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>42</v>
@@ -5366,15 +5462,11 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5382,18 +5474,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5407,28 +5499,28 @@
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5450,7 +5542,7 @@
         <v>42</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
         <v>42</v>
@@ -5476,34 +5568,30 @@
       <c r="AD37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>256</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5511,33 +5599,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5585,7 +5675,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5600,18 +5690,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5622,7 +5712,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5631,20 +5721,20 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5693,13 +5783,13 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>42</v>
@@ -5708,18 +5798,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5733,7 +5823,7 @@
         <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -5742,16 +5832,20 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5772,14 +5866,16 @@
         <v>42</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5797,7 +5893,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5809,21 +5905,21 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5837,29 +5933,27 @@
         <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5883,11 +5977,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5905,7 +6001,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5914,35 +6010,37 @@
         <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C42" t="s" s="2">
-        <v>286</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5951,20 +6049,20 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5989,59 +6087,59 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6059,21 +6157,19 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6121,13 +6217,13 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>42</v>
@@ -6136,20 +6232,22 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6158,7 +6256,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6167,23 +6265,19 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6207,11 +6301,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6229,13 +6325,13 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
@@ -6244,20 +6340,22 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6275,16 +6373,16 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>298</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6308,7 +6406,7 @@
         <v>42</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>42</v>
@@ -6334,11 +6432,15 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" s="2"/>
+      <c r="AE45" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" s="2"/>
+      <c r="AG45" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6346,29 +6448,29 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>64</v>
+        <v>286</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6380,17 +6482,15 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6415,13 +6515,11 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6438,11 +6536,15 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6453,15 +6555,15 @@
         <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6472,31 +6574,31 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6518,16 +6620,14 @@
         <v>42</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>42</v>
@@ -6544,22 +6644,26 @@
       <c r="AD47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE47" s="2"/>
+      <c r="AE47" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH47" t="s" s="2">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>182</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6567,11 +6671,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6587,22 +6691,20 @@
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6624,16 +6726,16 @@
         <v>42</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6650,11 +6752,15 @@
       <c r="AD48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE48" s="2"/>
+      <c r="AE48" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG48" s="2"/>
+      <c r="AG48" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6662,10 +6768,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>228</v>
+        <v>320</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6673,7 +6779,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6696,19 +6802,17 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6733,13 +6837,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6757,7 +6861,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6772,10 +6876,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6783,7 +6887,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6794,7 +6898,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6806,18 +6910,20 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6841,13 +6947,11 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6865,7 +6969,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6880,10 +6984,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6891,7 +6995,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6902,7 +7006,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6914,17 +7018,15 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6946,7 +7048,7 @@
         <v>42</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
         <v>42</v>
@@ -6972,15 +7074,11 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6988,10 +7086,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>335</v>
+        <v>64</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6999,18 +7097,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -7022,20 +7120,18 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>337</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7056,7 +7152,7 @@
         <v>42</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>42</v>
@@ -7082,26 +7178,22 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7109,7 +7201,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7120,7 +7212,7 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7129,19 +7221,23 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7162,7 +7258,7 @@
         <v>42</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>42</v>
@@ -7188,15 +7284,11 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7204,10 +7296,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7215,18 +7307,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7235,21 +7327,23 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7270,7 +7364,7 @@
         <v>42</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>42</v>
@@ -7296,15 +7390,11 @@
       <c r="AD54" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE54" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="AE54" s="2"/>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG54" s="2"/>
       <c r="AH54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7312,10 +7402,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7323,41 +7413,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7381,13 +7473,13 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7405,13 +7497,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7420,10 +7512,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7462,7 +7554,9 @@
       <c r="L56" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7520,7 +7614,7 @@
         <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
@@ -7548,7 +7642,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7560,15 +7654,17 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7626,16 +7722,16 @@
         <v>51</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7643,7 +7739,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7654,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7666,19 +7762,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7703,13 +7799,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7727,25 +7823,25 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7753,7 +7849,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7776,18 +7872,16 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7835,7 +7929,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7853,7 +7947,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>64</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7861,18 +7955,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7884,15 +7978,17 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7941,13 +8037,13 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
@@ -7956,10 +8052,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>64</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7967,43 +8063,41 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>337</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>380</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8051,7 +8145,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8066,10 +8160,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8077,7 +8171,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8100,13 +8194,13 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>381</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8157,7 +8251,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8166,16 +8260,16 @@
         <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8183,18 +8277,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8206,17 +8300,15 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8265,25 +8357,25 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>388</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8291,41 +8383,43 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>135</v>
+        <v>390</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8349,13 +8443,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8373,13 +8467,13 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>42</v>
@@ -8388,10 +8482,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8399,7 +8493,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8422,26 +8516,24 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>104</v>
+        <v>398</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>42</v>
@@ -8459,13 +8551,13 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8483,7 +8575,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8498,10 +8590,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8509,7 +8601,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8517,7 +8609,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>51</v>
@@ -8532,13 +8624,13 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>399</v>
+        <v>210</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8589,10 +8681,10 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>51</v>
@@ -8604,10 +8696,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>42</v>
+        <v>383</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8615,7 +8707,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8638,19 +8730,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8699,7 +8791,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8714,10 +8806,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8725,7 +8817,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8805,7 +8897,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8831,7 +8923,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8913,7 +9005,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -8939,11 +9031,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8968,7 +9060,7 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>70</v>
@@ -9021,7 +9113,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9047,7 +9139,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9055,7 +9147,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>51</v>
@@ -9067,27 +9159,29 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N71" t="s" s="2">
-        <v>167</v>
+        <v>421</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>42</v>
@@ -9105,13 +9199,13 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9129,33 +9223,33 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>416</v>
+        <v>42</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>171</v>
+        <v>425</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>172</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9163,7 +9257,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>51</v>
@@ -9175,23 +9269,19 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9239,10 +9329,10 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>51</v>
@@ -9254,10 +9344,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9265,7 +9355,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9276,7 +9366,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9285,22 +9375,22 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>279</v>
+        <v>433</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9325,11 +9415,13 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X73" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y73" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9347,25 +9439,25 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>125</v>
+        <v>435</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9373,7 +9465,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9384,7 +9476,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9396,20 +9488,16 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>337</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>429</v>
+        <v>62</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9430,7 +9518,7 @@
         <v>42</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
         <v>42</v>
@@ -9457,13 +9545,13 @@
         <v>42</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>42</v>
@@ -9472,10 +9560,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9483,18 +9571,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -9506,15 +9594,17 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
@@ -9536,7 +9626,7 @@
         <v>42</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>42</v>
@@ -9562,11 +9652,15 @@
       <c r="AD75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE75" s="2"/>
+      <c r="AE75" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG75" s="2"/>
+      <c r="AG75" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9585,11 +9679,11 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>66</v>
+        <v>376</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9602,7 +9696,7 @@
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>42</v>
@@ -9611,10 +9705,10 @@
         <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>69</v>
+        <v>377</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>70</v>
@@ -9640,7 +9734,7 @@
         <v>42</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
         <v>42</v>
@@ -9666,11 +9760,15 @@
       <c r="AD76" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE76" s="2"/>
+      <c r="AE76" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG76" s="2"/>
+      <c r="AG76" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9681,7 +9779,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9689,41 +9787,41 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9744,16 +9842,16 @@
         <v>42</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>42</v>
+        <v>443</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -9770,30 +9868,34 @@
       <c r="AD77" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE77" s="2"/>
+      <c r="AE77" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH77" t="s" s="2">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9813,19 +9915,23 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>351</v>
+        <v>446</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9846,7 +9952,7 @@
         <v>42</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W78" t="s" s="2">
         <v>42</v>
@@ -9872,22 +9978,26 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH78" t="s" s="2">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9895,7 +10005,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9918,16 +10028,20 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9948,16 +10062,14 @@
         <v>42</v>
       </c>
       <c r="V79" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>42</v>
@@ -9974,22 +10086,26 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" s="2"/>
+      <c r="AE79" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" s="2"/>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH79" t="s" s="2">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>355</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9997,7 +10113,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10008,7 +10124,7 @@
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -10020,19 +10136,19 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10057,13 +10173,13 @@
         <v>42</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -10080,11 +10196,15 @@
       <c r="AD80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE80" s="2"/>
+      <c r="AE80" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG80" s="2"/>
+      <c r="AG80" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10092,10 +10212,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10103,7 +10223,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10126,18 +10246,16 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10199,7 +10317,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>374</v>
+        <v>64</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10207,18 +10325,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -10230,15 +10348,17 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -10298,17 +10418,637 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>378</v>
+        <v>64</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE83" s="2"/>
+      <c r="AF83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE84" s="2"/>
+      <c r="AF84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG84" s="2"/>
+      <c r="AH84" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG85" s="2"/>
+      <c r="AH85" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" s="2"/>
+      <c r="AH87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG88" s="2"/>
+      <c r="AH88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL82">
+  <autoFilter ref="A1:AL88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10318,7 +11058,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
